--- a/GUI + Reviews/202512/Eurozone 300.xlsx
+++ b/GUI + Reviews/202512/Eurozone 300.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202512\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB487906-4B52-42C2-A7DE-1C75121CE913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{FB487906-4B52-42C2-A7DE-1C75121CE913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD53764B-501B-44B2-A632-A0ED4ED54324}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{E537CFF6-23A4-4DA0-B927-CDA81DE83D9E}"/>
+    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{E537CFF6-23A4-4DA0-B927-CDA81DE83D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3224,28 +3224,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA84288D-ED29-4BF8-94D6-6D8BC627894D}" name="Universe" displayName="Universe" ref="A1:S301" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA84288D-ED29-4BF8-94D6-6D8BC627894D}" name="Universe" displayName="Universe" ref="A1:S301" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:S301" xr:uid="{EA84288D-ED29-4BF8-94D6-6D8BC627894D}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{0ECACE55-19FA-42F3-AC28-D4966F1F0C5C}" name="Rank" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{66B7BC36-895F-4D46-9FC9-79F7D819E07E}" name="Ticker" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{1F276C68-0CE1-446C-9B83-48A525E92EE4}" name="Name" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{9975165A-A9A3-473C-BB1C-7E11977DF4C3}" name="ISIN" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{9FC68F15-C433-4606-8D76-2D89C5DA9A4A}" name="MIC" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{D50B7726-4B6D-420C-B6A1-27D0B0D01199}" name="NOSH" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{3DCABF85-0833-4384-ABB8-008A00C7C82A}" name="Price" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{9E1ACF08-7D4B-4026-B90A-3E51B624D771}" name="Currency" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{D1EB9C59-B426-448C-A5D8-65ED218E60C5}" name="12 month aver. turnover EUR" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{2C3523D9-159C-49A8-BEBC-C51A3A38F3AA}" name="20 days aver. turn EUR" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{94D57A76-86E9-4645-952F-ACEF69059D52}" name="10 days aver. turn EUR" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{1AB54FBA-476B-48E8-9FBB-AFF9E4A70318}" name="5 days aver. turn EUR" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{D0C5A6BE-E224-44BD-9EEE-D63C57AE3DB2}" name="6 month aver. turnover EUR" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{671D43BE-E12C-4665-A589-CD473F3849F4}" name="126 days volatility" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{3743FA6E-3BB6-48D7-8AAE-64B4293EDF7B}" name="100 days volatility" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{40508B1C-EBA2-4934-9677-D6C0C913A42F}" name="100 days aver. turn EUR" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{D5157893-4F00-429F-A8A5-3C2A29D7A0C8}" name="180 days volatility" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{EA1A0E1C-9C62-440F-96B9-6636A1E797D7}" name="3 months aver. Turnover EUR" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{EBE57919-306B-4B86-995D-E88D2ECDA815}" name="3 months aver. Turnover USD" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{0ECACE55-19FA-42F3-AC28-D4966F1F0C5C}" name="Rank" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{66B7BC36-895F-4D46-9FC9-79F7D819E07E}" name="Ticker" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{1F276C68-0CE1-446C-9B83-48A525E92EE4}" name="Name" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{9975165A-A9A3-473C-BB1C-7E11977DF4C3}" name="ISIN" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{9FC68F15-C433-4606-8D76-2D89C5DA9A4A}" name="MIC" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{D50B7726-4B6D-420C-B6A1-27D0B0D01199}" name="NOSH" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{3DCABF85-0833-4384-ABB8-008A00C7C82A}" name="Price" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{9E1ACF08-7D4B-4026-B90A-3E51B624D771}" name="Currency" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{D1EB9C59-B426-448C-A5D8-65ED218E60C5}" name="12 month aver. turnover EUR" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{2C3523D9-159C-49A8-BEBC-C51A3A38F3AA}" name="20 days aver. turn EUR" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{94D57A76-86E9-4645-952F-ACEF69059D52}" name="10 days aver. turn EUR" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{1AB54FBA-476B-48E8-9FBB-AFF9E4A70318}" name="5 days aver. turn EUR" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{D0C5A6BE-E224-44BD-9EEE-D63C57AE3DB2}" name="6 month aver. turnover EUR" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{671D43BE-E12C-4665-A589-CD473F3849F4}" name="126 days volatility" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{3743FA6E-3BB6-48D7-8AAE-64B4293EDF7B}" name="100 days volatility" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{40508B1C-EBA2-4934-9677-D6C0C913A42F}" name="100 days aver. turn EUR" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{D5157893-4F00-429F-A8A5-3C2A29D7A0C8}" name="180 days volatility" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{EA1A0E1C-9C62-440F-96B9-6636A1E797D7}" name="3 months aver. Turnover EUR" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{EBE57919-306B-4B86-995D-E88D2ECDA815}" name="3 months aver. Turnover USD" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3570,29 +3570,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ED0221-9371-4545-879E-6CFFD18DCA21}">
   <dimension ref="A1:S301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="Q287" sqref="Q287"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.07421875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.23046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.53515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.4609375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.3046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.15234375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.3046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3651,7 +3653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3706,7 +3708,7 @@
         <v>26464460.1663213</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3761,7 +3763,7 @@
         <v>8305906.5983072501</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3816,7 +3818,7 @@
         <v>86128671.132137001</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3871,7 +3873,7 @@
         <v>9626963.10094372</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3926,7 +3928,7 @@
         <v>74011533.285271406</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3981,7 +3983,7 @@
         <v>14870504.708213501</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4036,7 +4038,7 @@
         <v>32368096.481348298</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4091,7 +4093,7 @@
         <v>9778240.1873382293</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4146,7 +4148,7 @@
         <v>6529131.6772357104</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4201,7 +4203,7 @@
         <v>25638744.9053693</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4256,7 +4258,7 @@
         <v>115732872.619123</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4311,7 +4313,7 @@
         <v>10291722.1112567</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4366,7 +4368,7 @@
         <v>106864711.33240899</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4421,7 +4423,7 @@
         <v>6202526.7586991899</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4476,7 +4478,7 @@
         <v>39166035.996399403</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4531,7 +4533,7 @@
         <v>37403210.168830097</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4586,7 +4588,7 @@
         <v>17054765.9102805</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4641,7 +4643,7 @@
         <v>68591726.965471104</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4696,7 +4698,7 @@
         <v>38604765.560353503</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4751,7 +4753,7 @@
         <v>114554343.79323301</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4806,7 +4808,7 @@
         <v>196902206.79192001</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4861,7 +4863,7 @@
         <v>27850274.641827401</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4916,7 +4918,7 @@
         <v>4774508.9949065996</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4971,7 +4973,7 @@
         <v>196175264.25025299</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5026,7 +5028,7 @@
         <v>26113386.405836798</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5081,7 +5083,7 @@
         <v>4618341.7751366599</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5136,7 +5138,7 @@
         <v>46709167.596201099</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5191,7 +5193,7 @@
         <v>11376216.524367001</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5246,7 +5248,7 @@
         <v>5143482.27414372</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5301,7 +5303,7 @@
         <v>12076211.867025301</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5356,7 +5358,7 @@
         <v>70415381.574164093</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5411,7 +5413,7 @@
         <v>83818950.664562598</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5466,7 +5468,7 @@
         <v>13855275.9499986</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5521,7 +5523,7 @@
         <v>6500677.80369737</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5576,7 +5578,7 @@
         <v>93759694.750503898</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5631,7 +5633,7 @@
         <v>628790744.55153298</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5686,7 +5688,7 @@
         <v>28518085.073169298</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5741,7 +5743,7 @@
         <v>23842996.2616276</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5796,7 +5798,7 @@
         <v>18172411.928061198</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5851,7 +5853,7 @@
         <v>12181076.340442801</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5906,7 +5908,7 @@
         <v>176913247.69380099</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5961,7 +5963,7 @@
         <v>10329901.4169861</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6016,7 +6018,7 @@
         <v>39005921.812812701</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6071,7 +6073,7 @@
         <v>51753046.606706403</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6126,7 +6128,7 @@
         <v>8474667.0883734208</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6181,7 +6183,7 @@
         <v>12523029.696587799</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6236,7 +6238,7 @@
         <v>21774070.150373701</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6291,7 +6293,7 @@
         <v>286921509.29607397</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6346,7 +6348,7 @@
         <v>100818039.01477601</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6401,7 +6403,7 @@
         <v>57007826.622915402</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6456,7 +6458,7 @@
         <v>253325577.49467301</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6511,7 +6513,7 @@
         <v>31954007.670451399</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6566,7 +6568,7 @@
         <v>24645872.701529101</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6621,7 +6623,7 @@
         <v>108191934.593705</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6676,7 +6678,7 @@
         <v>17643251.667031601</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6731,7 +6733,7 @@
         <v>69761047.993120596</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6786,7 +6788,7 @@
         <v>206870092.04022601</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -6841,7 +6843,7 @@
         <v>70226437.618759006</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -6896,7 +6898,7 @@
         <v>8511177.0973675996</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -6951,7 +6953,7 @@
         <v>35662448.505756803</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7006,7 +7008,7 @@
         <v>9416024.6575329807</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7061,7 +7063,7 @@
         <v>14416670.843463801</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -7116,7 +7118,7 @@
         <v>96887741.330895305</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -7171,7 +7173,7 @@
         <v>243014105.80956301</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -7226,7 +7228,7 @@
         <v>5033370.2932292204</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -7281,7 +7283,7 @@
         <v>34427168.6140991</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -7336,7 +7338,7 @@
         <v>137925878.805994</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -7391,7 +7393,7 @@
         <v>17559125.184292998</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -7446,7 +7448,7 @@
         <v>60516741.810162596</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -7501,7 +7503,7 @@
         <v>27905628.0882218</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -7556,7 +7558,7 @@
         <v>27903209.310544901</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -7611,7 +7613,7 @@
         <v>78123008.163468003</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -7666,7 +7668,7 @@
         <v>46839594.640638903</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -7721,7 +7723,7 @@
         <v>63352843.131319202</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -7776,7 +7778,7 @@
         <v>36871077.798372298</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -7831,7 +7833,7 @@
         <v>35548691.2316847</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -7886,7 +7888,7 @@
         <v>4756284.3246490704</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -7941,7 +7943,7 @@
         <v>137861147.53916299</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -7996,7 +7998,7 @@
         <v>41084452.856529303</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8051,7 +8053,7 @@
         <v>15779156.306249</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8106,7 +8108,7 @@
         <v>6954787.1301461002</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -8161,7 +8163,7 @@
         <v>82418820.723665595</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -8216,7 +8218,7 @@
         <v>2562761.84067393</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -8271,7 +8273,7 @@
         <v>21704225.058465902</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -8326,7 +8328,7 @@
         <v>11503476.1689096</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -8381,7 +8383,7 @@
         <v>47356527.306202903</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -8436,7 +8438,7 @@
         <v>87189947.560488701</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -8491,7 +8493,7 @@
         <v>17801641.064172499</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -8546,7 +8548,7 @@
         <v>58683000.949091703</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -8601,7 +8603,7 @@
         <v>22147223.294928201</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -8656,7 +8658,7 @@
         <v>5215047.0280330405</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -8711,7 +8713,7 @@
         <v>207685531.526611</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -8766,7 +8768,7 @@
         <v>93941883.061751395</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -8821,7 +8823,7 @@
         <v>71999492.791794896</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -8876,7 +8878,7 @@
         <v>195339529.84979901</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -8931,7 +8933,7 @@
         <v>8636841.5969372895</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -8986,7 +8988,7 @@
         <v>56032442.922977298</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -9041,7 +9043,7 @@
         <v>69301798.764840096</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -9096,7 +9098,7 @@
         <v>26229885.021113802</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -9151,7 +9153,7 @@
         <v>41149381.274617396</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -9206,7 +9208,7 @@
         <v>18368607.126767401</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -9261,7 +9263,7 @@
         <v>27421460.150026601</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -9316,7 +9318,7 @@
         <v>11123013.0874385</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -9371,7 +9373,7 @@
         <v>7001269.8666899297</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -9426,7 +9428,7 @@
         <v>15635697.707981501</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -9481,7 +9483,7 @@
         <v>12497925.8644452</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -9536,7 +9538,7 @@
         <v>23841929.5477065</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -9591,7 +9593,7 @@
         <v>173125633.060821</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -9646,7 +9648,7 @@
         <v>94211911.034526795</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -9701,7 +9703,7 @@
         <v>187677318.683135</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -9756,7 +9758,7 @@
         <v>31962163.378448799</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -9811,7 +9813,7 @@
         <v>128240726.61354201</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -9866,7 +9868,7 @@
         <v>12553279.0836406</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -9921,7 +9923,7 @@
         <v>18760218.054551098</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -9976,7 +9978,7 @@
         <v>37697742.792461701</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -10031,7 +10033,7 @@
         <v>20192181.8741065</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -10086,7 +10088,7 @@
         <v>19831143.265164498</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -10141,7 +10143,7 @@
         <v>12220150.906341201</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -10196,7 +10198,7 @@
         <v>228887602.858601</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -10251,7 +10253,7 @@
         <v>78004976.785517395</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -10306,7 +10308,7 @@
         <v>35827355.485031597</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -10361,7 +10363,7 @@
         <v>9479255.9263503607</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -10416,7 +10418,7 @@
         <v>112794.81500183399</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -10471,7 +10473,7 @@
         <v>6728926.4620745098</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -10526,7 +10528,7 @@
         <v>26754344.346135799</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -10581,7 +10583,7 @@
         <v>10384932.809961099</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -10636,7 +10638,7 @@
         <v>8758389.5432763994</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -10691,7 +10693,7 @@
         <v>30791339.970476702</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -10746,7 +10748,7 @@
         <v>38009452.814037599</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -10801,7 +10803,7 @@
         <v>4856786.7043745099</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -10856,7 +10858,7 @@
         <v>27646243.243147101</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -10911,7 +10913,7 @@
         <v>8383617.1785413204</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -10966,7 +10968,7 @@
         <v>28261011.471990298</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -11021,7 +11023,7 @@
         <v>14153034.2508728</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -11076,7 +11078,7 @@
         <v>86287613.120007694</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -11131,7 +11133,7 @@
         <v>9545440.1789268106</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -11186,7 +11188,7 @@
         <v>15712323.266307199</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -11241,7 +11243,7 @@
         <v>17047447.201814398</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -11296,7 +11298,7 @@
         <v>17392151.250797998</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -11351,7 +11353,7 @@
         <v>2528696.4464222402</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -11406,7 +11408,7 @@
         <v>30252378.632888999</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -11461,7 +11463,7 @@
         <v>71836006.321187899</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -11516,7 +11518,7 @@
         <v>64625963.888559699</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -11571,7 +11573,7 @@
         <v>32049005.612376198</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -11626,7 +11628,7 @@
         <v>62942364.179218702</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -11681,7 +11683,7 @@
         <v>12427795.170078401</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -11736,7 +11738,7 @@
         <v>132334098.846276</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -11791,7 +11793,7 @@
         <v>18616217.258075301</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -11846,7 +11848,7 @@
         <v>6578467.4263807898</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -11901,7 +11903,7 @@
         <v>161812322.55946299</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -11956,7 +11958,7 @@
         <v>27130606.973647799</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -12011,7 +12013,7 @@
         <v>141326631.93808499</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -12066,7 +12068,7 @@
         <v>41510373.511022203</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -12121,7 +12123,7 @@
         <v>146351395.30293599</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -12176,7 +12178,7 @@
         <v>185876374.37553799</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -12231,7 +12233,7 @@
         <v>15041166.292094501</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -12286,7 +12288,7 @@
         <v>11316306.7015</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -12341,7 +12343,7 @@
         <v>329523646.21244597</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -12396,7 +12398,7 @@
         <v>19482986.3908378</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -12451,7 +12453,7 @@
         <v>10164291.477043699</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -12506,7 +12508,7 @@
         <v>25669456.921825301</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -12561,7 +12563,7 @@
         <v>31619089.749928098</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -12616,7 +12618,7 @@
         <v>17638061.149832699</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -12671,7 +12673,7 @@
         <v>29843764.134474799</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -12726,7 +12728,7 @@
         <v>43359474.1252959</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -12781,7 +12783,7 @@
         <v>4828091.7523178002</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -12836,7 +12838,7 @@
         <v>110033129.397947</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -12891,7 +12893,7 @@
         <v>32578410.796717498</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -12946,7 +12948,7 @@
         <v>10219431.937639499</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -13001,7 +13003,7 @@
         <v>32583250.155760601</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -13056,7 +13058,7 @@
         <v>15137430.665752901</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -13111,7 +13113,7 @@
         <v>19212903.468168199</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -13166,7 +13168,7 @@
         <v>13785256.555536</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -13221,7 +13223,7 @@
         <v>33426966.275331799</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -13276,7 +13278,7 @@
         <v>8564949.6186064109</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -13331,7 +13333,7 @@
         <v>37882663.331041902</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -13386,7 +13388,7 @@
         <v>15294876.845135299</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -13441,7 +13443,7 @@
         <v>93970508.512403801</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -13496,7 +13498,7 @@
         <v>175977655.27555001</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -13551,7 +13553,7 @@
         <v>140136487.22382599</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -13606,7 +13608,7 @@
         <v>26604952.888617601</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -13661,7 +13663,7 @@
         <v>6341485.3406119896</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -13716,7 +13718,7 @@
         <v>35955045.639815398</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -13771,7 +13773,7 @@
         <v>313555952.450616</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -13826,7 +13828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -13881,7 +13883,7 @@
         <v>6248168.5033473801</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -13936,7 +13938,7 @@
         <v>4874991.6236339202</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -13991,7 +13993,7 @@
         <v>107828330.320908</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -14046,7 +14048,7 @@
         <v>129699924.29912101</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -14101,7 +14103,7 @@
         <v>40228548.298423097</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -14156,7 +14158,7 @@
         <v>11739247.0689968</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -14211,7 +14213,7 @@
         <v>19685886.144303899</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -14266,7 +14268,7 @@
         <v>62021916.1128987</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -14321,7 +14323,7 @@
         <v>61166985.025174297</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -14376,7 +14378,7 @@
         <v>49830169.221571296</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -14431,7 +14433,7 @@
         <v>147461314.67462799</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -14486,7 +14488,7 @@
         <v>30508956.581627399</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -14541,7 +14543,7 @@
         <v>18786460.605107501</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -14596,7 +14598,7 @@
         <v>25132208.8937556</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -14651,7 +14653,7 @@
         <v>20852135.443474699</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -14706,7 +14708,7 @@
         <v>41205760.263240904</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -14761,7 +14763,7 @@
         <v>36729280.716433503</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -14816,7 +14818,7 @@
         <v>97482564.918623894</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -14871,7 +14873,7 @@
         <v>63718870.813999698</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -14926,7 +14928,7 @@
         <v>16046482.3012782</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -14981,7 +14983,7 @@
         <v>353552.48405910301</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -15036,7 +15038,7 @@
         <v>17979998.471455801</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -15091,7 +15093,7 @@
         <v>65550218.294033103</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -15146,7 +15148,7 @@
         <v>15704445.2192131</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -15201,7 +15203,7 @@
         <v>62995884.734736897</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -15256,7 +15258,7 @@
         <v>37563228.149794899</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -15311,7 +15313,7 @@
         <v>13731532.4358676</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -15366,7 +15368,7 @@
         <v>37993071.589299902</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -15421,7 +15423,7 @@
         <v>23779570.769689001</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -15476,7 +15478,7 @@
         <v>38085130.555267602</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -15531,7 +15533,7 @@
         <v>139066300.627534</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -15586,7 +15588,7 @@
         <v>102784721.398377</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -15641,7 +15643,7 @@
         <v>52070196.316010803</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -15696,7 +15698,7 @@
         <v>21011196.583819602</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -15751,7 +15753,7 @@
         <v>11284589.6398986</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -15806,7 +15808,7 @@
         <v>16491483.172831999</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -15861,7 +15863,7 @@
         <v>8217416.9222722296</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -15916,7 +15918,7 @@
         <v>15126664.1112363</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -15971,7 +15973,7 @@
         <v>27461394.009672899</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -16026,7 +16028,7 @@
         <v>38012064.798709601</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -16081,7 +16083,7 @@
         <v>43064169.281303599</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -16136,7 +16138,7 @@
         <v>63562657.345713302</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -16191,7 +16193,7 @@
         <v>9780140.5844181795</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -16246,7 +16248,7 @@
         <v>66115113.262213998</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -16301,7 +16303,7 @@
         <v>26077578.705306999</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -16356,7 +16358,7 @@
         <v>461550881.07191098</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -16411,7 +16413,7 @@
         <v>5175613.7247950304</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -16466,7 +16468,7 @@
         <v>83313798.456460893</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -16521,7 +16523,7 @@
         <v>53505816.884655297</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -16576,7 +16578,7 @@
         <v>156120652.26238501</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -16631,7 +16633,7 @@
         <v>105516015.84645601</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -16686,7 +16688,7 @@
         <v>94785995.945916906</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -16741,7 +16743,7 @@
         <v>32527837.379808702</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -16796,7 +16798,7 @@
         <v>189528580.930825</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -16851,7 +16853,7 @@
         <v>376029939.132653</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -16906,7 +16908,7 @@
         <v>31032647.224663999</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -16961,7 +16963,7 @@
         <v>15901132.7781434</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -17016,7 +17018,7 @@
         <v>7052201.1369832298</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -17071,7 +17073,7 @@
         <v>5727171.8011633698</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -17126,7 +17128,7 @@
         <v>233582043.159466</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -17181,7 +17183,7 @@
         <v>16764843.785968199</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -17236,7 +17238,7 @@
         <v>27893833.302464601</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -17291,7 +17293,7 @@
         <v>3353799.8870693799</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -17346,7 +17348,7 @@
         <v>184421550.05613601</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -17401,7 +17403,7 @@
         <v>249155427.71931601</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -17456,7 +17458,7 @@
         <v>271067388.24797499</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -17511,7 +17513,7 @@
         <v>47164247.441929802</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -17566,7 +17568,7 @@
         <v>12006081.856218699</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -17621,7 +17623,7 @@
         <v>33079949.500856601</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -17676,7 +17678,7 @@
         <v>139982609.69790301</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -17731,7 +17733,7 @@
         <v>13774006.5100777</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -17786,7 +17788,7 @@
         <v>8116989.2840193398</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -17841,7 +17843,7 @@
         <v>20802082.001544502</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -17896,7 +17898,7 @@
         <v>273553778.58005297</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -17951,7 +17953,7 @@
         <v>65220854.741007604</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -18006,7 +18008,7 @@
         <v>18741468.933080599</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -18061,7 +18063,7 @@
         <v>10417287.665442299</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -18116,7 +18118,7 @@
         <v>36930000.690362602</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -18171,7 +18173,7 @@
         <v>7030362.8935225196</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -18226,7 +18228,7 @@
         <v>13575571.803157801</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -18281,7 +18283,7 @@
         <v>13614008.3381174</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -18336,7 +18338,7 @@
         <v>99442220.578639597</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -18391,7 +18393,7 @@
         <v>51083976.447846003</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -18446,7 +18448,7 @@
         <v>21258459.807868101</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -18501,7 +18503,7 @@
         <v>35524318.817839101</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -18556,7 +18558,7 @@
         <v>34776647.883451797</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -18611,7 +18613,7 @@
         <v>72690523.382163197</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -18666,7 +18668,7 @@
         <v>38324643.247607</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -18721,7 +18723,7 @@
         <v>44359118.754685603</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -18776,7 +18778,7 @@
         <v>238066227.053754</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -18831,7 +18833,7 @@
         <v>13748167.7079682</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -18886,7 +18888,7 @@
         <v>21443974.599983901</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -18941,7 +18943,7 @@
         <v>68076770.024208993</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -18996,7 +18998,7 @@
         <v>45813287.164494</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -19051,7 +19053,7 @@
         <v>9055242.6541073993</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -19106,7 +19108,7 @@
         <v>35274239.8868424</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -19161,7 +19163,7 @@
         <v>373375769.30038702</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -19210,13 +19212,13 @@
         <v>15.492692379999999</v>
       </c>
       <c r="R284" s="1">
-        <v>0</v>
+        <v>50959180.020000003</v>
       </c>
       <c r="S284" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.3">
+        <v>50959180.020000003</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -19271,7 +19273,7 @@
         <v>28516371.935224801</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -19326,7 +19328,7 @@
         <v>31007463.622887399</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -19381,7 +19383,7 @@
         <v>12931453.0095063</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -19436,7 +19438,7 @@
         <v>9951458.5849702209</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -19491,7 +19493,7 @@
         <v>8308738.5850508204</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -19546,7 +19548,7 @@
         <v>54455934.867097497</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -19601,7 +19603,7 @@
         <v>9060374.0084394999</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -19656,7 +19658,7 @@
         <v>119926911.732161</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -19711,7 +19713,7 @@
         <v>11030886.414287901</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -19766,7 +19768,7 @@
         <v>104503890.649014</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -19821,7 +19823,7 @@
         <v>64013895.233723097</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -19876,7 +19878,7 @@
         <v>25058669.519553501</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -19931,7 +19933,7 @@
         <v>10421719.621392399</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -19986,7 +19988,7 @@
         <v>4203033.8504381096</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -20041,7 +20043,7 @@
         <v>5830430.4162761997</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -20096,7 +20098,7 @@
         <v>98733923.395418704</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>

--- a/GUI + Reviews/202512/Eurozone 300.xlsx
+++ b/GUI + Reviews/202512/Eurozone 300.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{FB487906-4B52-42C2-A7DE-1C75121CE913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD53764B-501B-44B2-A632-A0ED4ED54324}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{D161E026-60E8-41D5-8DF1-1D9528D6EF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEF5F3DA-34DD-455A-AC0B-38F8641B6364}"/>
   <bookViews>
-    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{E537CFF6-23A4-4DA0-B927-CDA81DE83D9E}"/>
+    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{D6093061-DE1F-44A0-B2A5-03D8E981A991}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3224,28 +3224,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA84288D-ED29-4BF8-94D6-6D8BC627894D}" name="Universe" displayName="Universe" ref="A1:S301" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:S301" xr:uid="{EA84288D-ED29-4BF8-94D6-6D8BC627894D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E0B1AA3-C604-46AF-A47E-F716F527C041}" name="Universe" displayName="Universe" ref="A1:S301" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:S301" xr:uid="{0E0B1AA3-C604-46AF-A47E-F716F527C041}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{0ECACE55-19FA-42F3-AC28-D4966F1F0C5C}" name="Rank" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{66B7BC36-895F-4D46-9FC9-79F7D819E07E}" name="Ticker" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{1F276C68-0CE1-446C-9B83-48A525E92EE4}" name="Name" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{9975165A-A9A3-473C-BB1C-7E11977DF4C3}" name="ISIN" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{9FC68F15-C433-4606-8D76-2D89C5DA9A4A}" name="MIC" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{D50B7726-4B6D-420C-B6A1-27D0B0D01199}" name="NOSH" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{3DCABF85-0833-4384-ABB8-008A00C7C82A}" name="Price" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{9E1ACF08-7D4B-4026-B90A-3E51B624D771}" name="Currency" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{D1EB9C59-B426-448C-A5D8-65ED218E60C5}" name="12 month aver. turnover EUR" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{2C3523D9-159C-49A8-BEBC-C51A3A38F3AA}" name="20 days aver. turn EUR" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{94D57A76-86E9-4645-952F-ACEF69059D52}" name="10 days aver. turn EUR" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{1AB54FBA-476B-48E8-9FBB-AFF9E4A70318}" name="5 days aver. turn EUR" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{D0C5A6BE-E224-44BD-9EEE-D63C57AE3DB2}" name="6 month aver. turnover EUR" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{671D43BE-E12C-4665-A589-CD473F3849F4}" name="126 days volatility" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{3743FA6E-3BB6-48D7-8AAE-64B4293EDF7B}" name="100 days volatility" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{40508B1C-EBA2-4934-9677-D6C0C913A42F}" name="100 days aver. turn EUR" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{D5157893-4F00-429F-A8A5-3C2A29D7A0C8}" name="180 days volatility" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{EA1A0E1C-9C62-440F-96B9-6636A1E797D7}" name="3 months aver. Turnover EUR" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{EBE57919-306B-4B86-995D-E88D2ECDA815}" name="3 months aver. Turnover USD" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{56124C4F-5DBC-4891-93B1-468E858BD917}" name="Rank" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{B82FFCD3-BF15-48CC-80D9-0EE05A5181FC}" name="Ticker" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{A4B6233F-CB54-4163-A5CE-9B0BE52550E4}" name="Name" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{8244CF6D-ABCA-49FC-8634-6A90E04B0071}" name="ISIN" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{65E51161-71D9-4378-9C31-03F172E5A84F}" name="MIC" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{0303395B-6132-43BB-ACDC-1CD00441171F}" name="NOSH" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{B49045C6-59C4-4271-9671-AFBCE417CF22}" name="Price" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{E68FAB7F-2F7B-4881-AA08-606BE415C840}" name="Currency" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{0C3D69C8-2E2C-4148-9228-C16C7C37F7C1}" name="12 month aver. turnover EUR" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{DACFDE70-0FE4-4DF2-A1F7-7878C7AFF78A}" name="20 days aver. turn EUR" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{A57395CE-DB88-4BB6-AABF-077E5077DCF3}" name="10 days aver. turn EUR" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{A2831AFD-F8EC-4281-8715-4A74F81C51D6}" name="5 days aver. turn EUR" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{AAAE057B-1731-4ED5-B735-179E7AD2E27D}" name="6 month aver. turnover EUR" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{C56AC3D0-4140-4A32-A2B3-CFAB7939D7F9}" name="126 days volatility" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{E8A3F6A8-7256-4195-9C82-FDEC203DDD81}" name="100 days volatility" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{85BF8F6E-10E8-406C-AB8B-296A03EDCAEE}" name="100 days aver. turn EUR" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{82963BD9-07FC-4157-BF63-5D9335424AD1}" name="180 days volatility" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{94CECD85-BB0A-4775-AF56-7D760A29B1C6}" name="3 months aver. Turnover EUR" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{153607C8-5BCA-40FC-9D63-65D407874DDD}" name="3 months aver. Turnover USD" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3567,31 +3567,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ED0221-9371-4545-879E-6CFFD18DCA21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE92E9D6-DC9B-4DDD-85A1-BA86F45F2676}">
   <dimension ref="A1:S301"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="Q287" sqref="Q287"/>
+      <selection activeCell="F284" sqref="F284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
@@ -19180,7 +19180,7 @@
         <v>27</v>
       </c>
       <c r="F284" s="1">
-        <v>2637743772</v>
+        <v>2344661130</v>
       </c>
       <c r="G284" s="1">
         <v>49.238591399999997</v>
@@ -19215,7 +19215,7 @@
         <v>50959180.020000003</v>
       </c>
       <c r="S284" s="1">
-        <v>50959180.020000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:19" x14ac:dyDescent="0.2">

--- a/GUI + Reviews/202512/Eurozone 300.xlsx
+++ b/GUI + Reviews/202512/Eurozone 300.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{D161E026-60E8-41D5-8DF1-1D9528D6EF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEF5F3DA-34DD-455A-AC0B-38F8641B6364}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D161E026-60E8-41D5-8DF1-1D9528D6EF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{D6093061-DE1F-44A0-B2A5-03D8E981A991}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D6093061-DE1F-44A0-B2A5-03D8E981A991}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3224,28 +3224,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E0B1AA3-C604-46AF-A47E-F716F527C041}" name="Universe" displayName="Universe" ref="A1:S301" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E0B1AA3-C604-46AF-A47E-F716F527C041}" name="Universe" displayName="Universe" ref="A1:S301" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:S301" xr:uid="{0E0B1AA3-C604-46AF-A47E-F716F527C041}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{56124C4F-5DBC-4891-93B1-468E858BD917}" name="Rank" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{B82FFCD3-BF15-48CC-80D9-0EE05A5181FC}" name="Ticker" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{A4B6233F-CB54-4163-A5CE-9B0BE52550E4}" name="Name" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{8244CF6D-ABCA-49FC-8634-6A90E04B0071}" name="ISIN" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{65E51161-71D9-4378-9C31-03F172E5A84F}" name="MIC" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{0303395B-6132-43BB-ACDC-1CD00441171F}" name="NOSH" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{B49045C6-59C4-4271-9671-AFBCE417CF22}" name="Price" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{E68FAB7F-2F7B-4881-AA08-606BE415C840}" name="Currency" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{0C3D69C8-2E2C-4148-9228-C16C7C37F7C1}" name="12 month aver. turnover EUR" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{DACFDE70-0FE4-4DF2-A1F7-7878C7AFF78A}" name="20 days aver. turn EUR" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{A57395CE-DB88-4BB6-AABF-077E5077DCF3}" name="10 days aver. turn EUR" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{A2831AFD-F8EC-4281-8715-4A74F81C51D6}" name="5 days aver. turn EUR" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{AAAE057B-1731-4ED5-B735-179E7AD2E27D}" name="6 month aver. turnover EUR" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{C56AC3D0-4140-4A32-A2B3-CFAB7939D7F9}" name="126 days volatility" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{E8A3F6A8-7256-4195-9C82-FDEC203DDD81}" name="100 days volatility" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{85BF8F6E-10E8-406C-AB8B-296A03EDCAEE}" name="100 days aver. turn EUR" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{82963BD9-07FC-4157-BF63-5D9335424AD1}" name="180 days volatility" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{94CECD85-BB0A-4775-AF56-7D760A29B1C6}" name="3 months aver. Turnover EUR" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{153607C8-5BCA-40FC-9D63-65D407874DDD}" name="3 months aver. Turnover USD" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{56124C4F-5DBC-4891-93B1-468E858BD917}" name="Rank" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{B82FFCD3-BF15-48CC-80D9-0EE05A5181FC}" name="Ticker" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{A4B6233F-CB54-4163-A5CE-9B0BE52550E4}" name="Name" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{8244CF6D-ABCA-49FC-8634-6A90E04B0071}" name="ISIN" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{65E51161-71D9-4378-9C31-03F172E5A84F}" name="MIC" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{0303395B-6132-43BB-ACDC-1CD00441171F}" name="NOSH" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{B49045C6-59C4-4271-9671-AFBCE417CF22}" name="Price" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{E68FAB7F-2F7B-4881-AA08-606BE415C840}" name="Currency" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{0C3D69C8-2E2C-4148-9228-C16C7C37F7C1}" name="12 month aver. turnover EUR" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{DACFDE70-0FE4-4DF2-A1F7-7878C7AFF78A}" name="20 days aver. turn EUR" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{A57395CE-DB88-4BB6-AABF-077E5077DCF3}" name="10 days aver. turn EUR" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{A2831AFD-F8EC-4281-8715-4A74F81C51D6}" name="5 days aver. turn EUR" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{AAAE057B-1731-4ED5-B735-179E7AD2E27D}" name="6 month aver. turnover EUR" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{C56AC3D0-4140-4A32-A2B3-CFAB7939D7F9}" name="126 days volatility" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{E8A3F6A8-7256-4195-9C82-FDEC203DDD81}" name="100 days volatility" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{85BF8F6E-10E8-406C-AB8B-296A03EDCAEE}" name="100 days aver. turn EUR" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{82963BD9-07FC-4157-BF63-5D9335424AD1}" name="180 days volatility" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{94CECD85-BB0A-4775-AF56-7D760A29B1C6}" name="3 months aver. Turnover EUR" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{153607C8-5BCA-40FC-9D63-65D407874DDD}" name="3 months aver. Turnover USD" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3570,9 +3570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE92E9D6-DC9B-4DDD-85A1-BA86F45F2676}">
   <dimension ref="A1:S301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="F284" sqref="F284"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19180,7 +19178,7 @@
         <v>27</v>
       </c>
       <c r="F284" s="1">
-        <v>2344661130</v>
+        <v>2637743772</v>
       </c>
       <c r="G284" s="1">
         <v>49.238591399999997</v>
